--- a/ocpa_order.xlsx
+++ b/ocpa_order.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -26,6 +26,9 @@
     <t>ocpa订单状态</t>
   </si>
   <si>
+    <t>订单所属广告主</t>
+  </si>
+  <si>
     <t>ocpa展现次数</t>
   </si>
   <si>
@@ -50,13 +53,16 @@
     <t>消耗偏差百分比</t>
   </si>
   <si>
-    <t>投放中</t>
+    <t>OCPA测试广告主</t>
+  </si>
+  <si>
+    <t>暂停</t>
   </si>
   <si>
     <t>0.01%</t>
   </si>
   <si>
-    <t>暂停</t>
+    <t>OCPA测试广告主3</t>
   </si>
   <si>
     <t>1.05%</t>
@@ -65,19 +71,31 @@
     <t>-84.25%</t>
   </si>
   <si>
+    <t>OCPA测试广告主5</t>
+  </si>
+  <si>
     <t>10.90%</t>
   </si>
   <si>
     <t>-31.82%</t>
   </si>
   <si>
+    <t>OCPA测试广告主6</t>
+  </si>
+  <si>
     <t>1.03%</t>
   </si>
   <si>
     <t>-93.76%</t>
   </si>
   <si>
+    <t>OCPA测试广告主4</t>
+  </si>
+  <si>
     <t>-92.20%</t>
+  </si>
+  <si>
+    <t>cvr_adv3_勿动</t>
   </si>
   <si>
     <t>0.03%</t>
@@ -422,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +482,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="n">
         <v>43405</v>
       </c>
@@ -476,28 +497,31 @@
         <v>5000</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
         <v>28</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="n">
         <v>43405</v>
       </c>
@@ -508,37 +532,40 @@
         <v>6000</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>970</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>105</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>63</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>12.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>80</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>-67.40000000000001</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
+      <c r="N3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="n">
         <v>43405</v>
       </c>
@@ -549,37 +576,40 @@
         <v>6000</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2196</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>412</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>654.49</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="n">
         <v>12</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>54.54</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>80</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-25.46</v>
       </c>
-      <c r="M4" t="s">
-        <v>17</v>
+      <c r="N4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="n">
         <v>43405</v>
       </c>
@@ -590,37 +620,40 @@
         <v>6000</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
         <v>1874</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>110</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>62.35</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>6.24</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>100</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>-93.76000000000001</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
+      <c r="N5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="n">
         <v>43405</v>
       </c>
@@ -631,37 +664,40 @@
         <v>6000</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
         <v>975</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>110</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>62.35</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="n">
         <v>10</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>6.24</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>80</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>-73.76000000000001</v>
       </c>
-      <c r="M6" t="s">
-        <v>20</v>
+      <c r="N6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="n">
         <v>43405</v>
       </c>
@@ -672,28 +708,31 @@
         <v>10000</v>
       </c>
       <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>3.85</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="n">
         <v>43405</v>
       </c>
@@ -704,24 +743,27 @@
         <v>1000</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.5</v>
       </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>50</v>
       </c>
     </row>
